--- a/TextEditor/doc/1.xlsx
+++ b/TextEditor/doc/1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlads\Desktop\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlads\source\repos\TextEditor\TextEditor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C348D-D6F5-40C3-ACF3-8E215C7F4D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3CDF68-0C10-4950-A41B-4B39F32B2043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{7265C791-D134-491E-83CC-71A47435BCFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Светлая</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>на проспекте</t>
+  </si>
+  <si>
+    <t>ваня привет!</t>
   </si>
 </sst>
 </file>
@@ -429,9 +432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270A3CCB-9CF1-4CBF-ADD3-45F26C461E51}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -496,6 +501,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
